--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -614,11 +614,11 @@
         </is>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>vidal</t>
+          <t>mario</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,6 +627,29 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vidal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,6 +650,29 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tinte</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>viriginia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,6 +673,29 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tinte</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>viriginia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,41 +656,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tinte</t>
+          <t>Corte Adulto</t>
         </is>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>viriginia</t>
+          <t>jose</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45707</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Tinte</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>viriginia</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>Efectivo</t>
         </is>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -1,125 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramos Lucas\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BD887B-375C-48F4-A0E5-46959230209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>EstadoPago</t>
-  </si>
-  <si>
-    <t>MetodoPago</t>
-  </si>
-  <si>
-    <t>11:19:06</t>
-  </si>
-  <si>
-    <t>Corte</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>Descuento</t>
-  </si>
-  <si>
-    <t>Yape</t>
-  </si>
-  <si>
-    <t>11:26:21</t>
-  </si>
-  <si>
-    <t>VIDAL</t>
-  </si>
-  <si>
-    <t>17:28:05</t>
-  </si>
-  <si>
-    <t>tinte</t>
-  </si>
-  <si>
-    <t>ROSA</t>
-  </si>
-  <si>
-    <t>Pagado</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>17:30:25</t>
-  </si>
-  <si>
-    <t>Corte Niño</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>17:04:50</t>
-  </si>
-  <si>
-    <t>Corte Adulto</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>Gratis</t>
-  </si>
-  <si>
-    <t>mario</t>
-  </si>
-  <si>
-    <t>vidal</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,21 +67,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,7 +145,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,10 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,237 +354,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Servicio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Costo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>EstadoPago</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MetodoPago</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Metodo_Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2">
         <v>45700</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11:19:06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Corte</t>
+        </is>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VICTOR</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Descuento</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2">
         <v>45692</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11:26:21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Corte</t>
+        </is>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VIDAL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Descuento</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2">
         <v>45686</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:28:05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tinte</t>
+        </is>
       </c>
       <c r="D4">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pagado</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2">
         <v>45665</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:28:05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Corte</t>
+        </is>
       </c>
       <c r="D5">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pagado</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2">
         <v>45705</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:30:25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Corte Niño</t>
+        </is>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pagado</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2">
         <v>45705</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:04:50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2">
         <v>45706</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mario</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2">
         <v>45707</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vidal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
         <v>45707</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>fredy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fredy</t>
+          <t>tomas</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,6 +696,29 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>julian</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -698,7 +698,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>45708</v>
+        <v>45698</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Efectivo</t>
+          <t>Yape</t>
         </is>
       </c>
     </row>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,6 +719,29 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>naty</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,6 +742,29 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>armando</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,6 +765,29 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Corte Adulto</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>javier</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stilos_kids.xlsx
+++ b/stilos_kids.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,33 +756,10 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>armando</t>
+          <t>roly</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45708</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Corte Adulto</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>javier</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>Efectivo</t>
         </is>
